--- a/tecnicaCajaNegra.xlsx
+++ b/tecnicaCajaNegra.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolam\Desktop\UNI\2º-CUATRI\INGENIERIA DEL SOFTWARE 2\IS2_2122\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Moodle\Tercer Curso\SegundoCuatrimestre\IngenieriaSoftwareII\IS2_2122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEF636B-1736-424A-A1F8-5A5B277B4CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5950D7B5-4A55-4962-B1B3-72CE8ED1CA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="CajaNegra" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>TURISMO</t>
   </si>
@@ -83,13 +84,133 @@
   </si>
   <si>
     <t>motocicleta(cilindrada)</t>
+  </si>
+  <si>
+    <t>Turismo</t>
+  </si>
+  <si>
+    <t>Clase Turismo</t>
+  </si>
+  <si>
+    <t>Clases Validas</t>
+  </si>
+  <si>
+    <t>Clases No validas</t>
+  </si>
+  <si>
+    <t>Matrícula</t>
+  </si>
+  <si>
+    <t>FechaMatriculacion</t>
+  </si>
+  <si>
+    <t>Potencia</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>!string, null</t>
+  </si>
+  <si>
+    <t>!fecha, null</t>
+  </si>
+  <si>
+    <t>fecha (localDate)</t>
+  </si>
+  <si>
+    <t>double, &gt;0</t>
+  </si>
+  <si>
+    <t>!double, &lt;=0 null</t>
+  </si>
+  <si>
+    <t>Casos de Prueba</t>
+  </si>
+  <si>
+    <t>ValorEsperado</t>
+  </si>
+  <si>
+    <t>("12569PO", LocalDate.now().minusYears(26), 12.85):</t>
+  </si>
+  <si>
+    <t>("23954KOP", LocalDate.now().plusDays(5), 74.23):</t>
+  </si>
+  <si>
+    <t>("52369ACF", LocalDate.now(), 19.85):</t>
+  </si>
+  <si>
+    <t>("552FRFRE", LocalDate.now().minusDays(41), 16.41):</t>
+  </si>
+  <si>
+    <t>("65456ADEF", LocalDate.now().minusDays(39), 15.98):</t>
+  </si>
+  <si>
+    <t>("569931", LocalDate.now().plusDays(14), 12.03):</t>
+  </si>
+  <si>
+    <t>("542DDS", LocalDate.now().plusDays(10), 11.95):</t>
+  </si>
+  <si>
+    <t>("ABBA1235", LocalDate.now().minusDays(1), 8.50):</t>
+  </si>
+  <si>
+    <t>("1321", LocalDate.now().plusDays(4), 7.90):</t>
+  </si>
+  <si>
+    <t>("1234", LocalDate.now().plusDays(1), 1):</t>
+  </si>
+  <si>
+    <t>("51385LK", LocalDate.now().minusYears(25), 114):</t>
+  </si>
+  <si>
+    <t>PrecioImpuesto</t>
+  </si>
+  <si>
+    <t>Clase Furgoneta</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>Columna4</t>
+  </si>
+  <si>
+    <t>1. 1234</t>
+  </si>
+  <si>
+    <t>2. hoy</t>
+  </si>
+  <si>
+    <t>3. 21</t>
+  </si>
+  <si>
+    <t>4. 12</t>
+  </si>
+  <si>
+    <t>5. null</t>
+  </si>
+  <si>
+    <t>6. 25</t>
+  </si>
+  <si>
+    <t>7.null</t>
+  </si>
+  <si>
+    <t>8. "hola"</t>
+  </si>
+  <si>
+    <t>9. -0.99</t>
+  </si>
+  <si>
+    <t>10. null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,16 +218,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -114,11 +260,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -126,11 +367,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -141,6 +417,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}" name="Tabla2" displayName="Tabla2" ref="G4:H15" totalsRowShown="0">
+  <autoFilter ref="G4:H15" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EBA2B40D-7824-4711-AC26-09AAE2E789F1}" name="Casos de Prueba" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{8C7346ED-F76B-4CF5-BA59-AAA305746A9E}" name="ValorEsperado" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,28 +726,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275440AC-4520-4206-A9FA-8D187B524CA7}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="4">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="4">
+        <v>68.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4">
+        <v>68.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4">
+        <v>143.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="4">
+        <v>143.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="4">
+        <v>179.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="4">
+        <v>179.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="G15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EB088C-FC0A-4755-A918-62E77BA3612A}">
   <dimension ref="B4:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -489,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -518,7 +1014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -529,7 +1025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -540,7 +1036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>6</v>
       </c>

--- a/tecnicaCajaNegra.xlsx
+++ b/tecnicaCajaNegra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Moodle\Tercer Curso\SegundoCuatrimestre\IngenieriaSoftwareII\IS2_2122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5950D7B5-4A55-4962-B1B3-72CE8ED1CA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6D1A83-EF7B-4395-A483-64C7637248B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>TURISMO</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Valores</t>
   </si>
   <si>
-    <t>Columna4</t>
-  </si>
-  <si>
     <t>1. 1234</t>
   </si>
   <si>
@@ -204,6 +201,81 @@
   </si>
   <si>
     <t>10. null</t>
+  </si>
+  <si>
+    <t>Furgoneta</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>!boolean, null</t>
+  </si>
+  <si>
+    <t>4. True</t>
+  </si>
+  <si>
+    <t>12. null</t>
+  </si>
+  <si>
+    <t>5. 2345</t>
+  </si>
+  <si>
+    <t>6. hoy +2 dias</t>
+  </si>
+  <si>
+    <t>7. 50</t>
+  </si>
+  <si>
+    <t>8.false</t>
+  </si>
+  <si>
+    <t>9. 5616</t>
+  </si>
+  <si>
+    <t>10.hace 20 dias</t>
+  </si>
+  <si>
+    <t>11. -0.99</t>
+  </si>
+  <si>
+    <t>("1234", LocalDate.now().plusDays(1), 1, false):</t>
+  </si>
+  <si>
+    <t>("1321", LocalDate.now().plusDays(4), 7.90, true):</t>
+  </si>
+  <si>
+    <t>("ABBA1235", LocalDate.now().minusDays(1), 8.50, true):</t>
+  </si>
+  <si>
+    <t>("542DDS", LocalDate.now().plusDays(10), 11.95,false):</t>
+  </si>
+  <si>
+    <t>("569931", LocalDate.now().plusDays(14), 12.03, false):</t>
+  </si>
+  <si>
+    <t>("65456ADEF", LocalDate.now().minusDays(39), 15.98, true):</t>
+  </si>
+  <si>
+    <t>("552FRFRE", LocalDate.now().minusDays(41), 16.41, true):</t>
+  </si>
+  <si>
+    <t>("52369ACF", LocalDate.now(), 19.85, false):</t>
+  </si>
+  <si>
+    <t>("23954KOP", LocalDate.now().plusDays(5), 74.23, true):</t>
+  </si>
+  <si>
+    <t>("12569PO", LocalDate.now().minusYears(28), 20.21, false):</t>
+  </si>
+  <si>
+    <t>("1234", LocalDate.now()minusYears(26), 5.2, false):</t>
+  </si>
+  <si>
+    <t>("51385LK", LocalDate.now().minusYears(25), 65.32, true):</t>
   </si>
 </sst>
 </file>
@@ -399,7 +471,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -423,8 +501,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}" name="Tabla2" displayName="Tabla2" ref="G4:H15" totalsRowShown="0">
   <autoFilter ref="G4:H15" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EBA2B40D-7824-4711-AC26-09AAE2E789F1}" name="Casos de Prueba" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{8C7346ED-F76B-4CF5-BA59-AAA305746A9E}" name="ValorEsperado" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EBA2B40D-7824-4711-AC26-09AAE2E789F1}" name="Casos de Prueba" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8C7346ED-F76B-4CF5-BA59-AAA305746A9E}" name="ValorEsperado" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}" name="Tabla22" displayName="Tabla22" ref="G24:H36" totalsRowShown="0">
+  <autoFilter ref="G24:H36" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6E82589E-C63F-4924-955F-D0E664A60B7B}" name="Casos de Prueba" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{02EF6B4E-8FA0-4E1C-981C-E745CCB96025}" name="ValorEsperado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -727,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275440AC-4520-4206-A9FA-8D187B524CA7}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,8 +827,8 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="53" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -858,13 +947,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>33</v>
@@ -875,13 +964,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>32</v>
@@ -892,13 +981,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>31</v>
@@ -910,7 +999,7 @@
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="17"/>
       <c r="G15" s="3" t="s">
@@ -920,16 +1009,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="4">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="4">
+        <f>25.24*0.8</f>
+        <v>20.192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="4">
+        <f>68.16*0.8</f>
+        <v>54.527999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="4">
+        <v>68.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="4">
+        <v>143.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="4">
+        <f>143.88*0.8</f>
+        <v>115.104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="4">
+        <f>179.22*0.8</f>
+        <v>143.376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="4">
+        <v>179.22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="4">
+        <f>224*0.8</f>
+        <v>179.20000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="4">
+        <f>224*0.8</f>
+        <v>179.20000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/tecnicaCajaNegra.xlsx
+++ b/tecnicaCajaNegra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Moodle\Tercer Curso\SegundoCuatrimestre\IngenieriaSoftwareII\IS2_2122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6D1A83-EF7B-4395-A483-64C7637248B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A970512-0A6D-4F65-91D4-8600E25B76BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="129">
   <si>
     <t>TURISMO</t>
   </si>
@@ -107,24 +107,6 @@
     <t>Potencia</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>!string, null</t>
-  </si>
-  <si>
-    <t>!fecha, null</t>
-  </si>
-  <si>
-    <t>fecha (localDate)</t>
-  </si>
-  <si>
-    <t>double, &gt;0</t>
-  </si>
-  <si>
-    <t>!double, &lt;=0 null</t>
-  </si>
-  <si>
     <t>Casos de Prueba</t>
   </si>
   <si>
@@ -164,84 +146,33 @@
     <t>("51385LK", LocalDate.now().minusYears(25), 114):</t>
   </si>
   <si>
-    <t>PrecioImpuesto</t>
-  </si>
-  <si>
     <t>Clase Furgoneta</t>
   </si>
   <si>
     <t>Valores</t>
   </si>
   <si>
-    <t>1. 1234</t>
-  </si>
-  <si>
     <t>2. hoy</t>
   </si>
   <si>
     <t>3. 21</t>
   </si>
   <si>
-    <t>4. 12</t>
-  </si>
-  <si>
-    <t>5. null</t>
-  </si>
-  <si>
-    <t>6. 25</t>
-  </si>
-  <si>
-    <t>7.null</t>
-  </si>
-  <si>
-    <t>8. "hola"</t>
-  </si>
-  <si>
-    <t>9. -0.99</t>
-  </si>
-  <si>
-    <t>10. null</t>
-  </si>
-  <si>
     <t>Furgoneta</t>
   </si>
   <si>
     <t>Comercial</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>!boolean, null</t>
-  </si>
-  <si>
     <t>4. True</t>
   </si>
   <si>
-    <t>12. null</t>
-  </si>
-  <si>
     <t>5. 2345</t>
   </si>
   <si>
-    <t>6. hoy +2 dias</t>
-  </si>
-  <si>
     <t>7. 50</t>
   </si>
   <si>
-    <t>8.false</t>
-  </si>
-  <si>
-    <t>9. 5616</t>
-  </si>
-  <si>
-    <t>10.hace 20 dias</t>
-  </si>
-  <si>
-    <t>11. -0.99</t>
-  </si>
-  <si>
     <t>("1234", LocalDate.now().plusDays(1), 1, false):</t>
   </si>
   <si>
@@ -276,13 +207,229 @@
   </si>
   <si>
     <t>("51385LK", LocalDate.now().minusYears(25), 65.32, true):</t>
+  </si>
+  <si>
+    <t>String(1)</t>
+  </si>
+  <si>
+    <t>fecha (localDate)(2)</t>
+  </si>
+  <si>
+    <t>!string(5), null(6)</t>
+  </si>
+  <si>
+    <t>!fecha(7), null(8)</t>
+  </si>
+  <si>
+    <t>!double(9), &lt;=0(10) null(11)</t>
+  </si>
+  <si>
+    <t>1. "1234"</t>
+  </si>
+  <si>
+    <t>4. 12.5</t>
+  </si>
+  <si>
+    <t>9. "hola"</t>
+  </si>
+  <si>
+    <t>11. null</t>
+  </si>
+  <si>
+    <t>5. 45</t>
+  </si>
+  <si>
+    <t>6. null</t>
+  </si>
+  <si>
+    <t>7. 99</t>
+  </si>
+  <si>
+    <t>8 null</t>
+  </si>
+  <si>
+    <t>Casos De prueba</t>
+  </si>
+  <si>
+    <t>Turismo("1234", 12, 21)</t>
+  </si>
+  <si>
+    <t>Turismo("2345", null, 12.5)</t>
+  </si>
+  <si>
+    <t>Turismo(45, mañana, 12.5)</t>
+  </si>
+  <si>
+    <t>Turismo("1234", hoy, "hola")</t>
+  </si>
+  <si>
+    <t>Turismo("1234", hoy, null)</t>
+  </si>
+  <si>
+    <t>10. -1</t>
+  </si>
+  <si>
+    <t>Turismo("1234", hoy, 40)</t>
+  </si>
+  <si>
+    <t>Turismo("5616", hoy, -1)</t>
+  </si>
+  <si>
+    <t>3. 40</t>
+  </si>
+  <si>
+    <t>Turismo(null, ayer, 1)</t>
+  </si>
+  <si>
+    <t>double &gt;0 (3)</t>
+  </si>
+  <si>
+    <t>boolean(4)</t>
+  </si>
+  <si>
+    <t>8. null</t>
+  </si>
+  <si>
+    <t>!boolean(12), null(13)</t>
+  </si>
+  <si>
+    <t>13. null</t>
+  </si>
+  <si>
+    <t>12. 2</t>
+  </si>
+  <si>
+    <t>10.-0.99</t>
+  </si>
+  <si>
+    <t>Furgoneta("1234", hoy, 21, true)</t>
+  </si>
+  <si>
+    <t>Furgoneta(2345, hace 20 dias, 1, true)</t>
+  </si>
+  <si>
+    <t>Furgoneta(null, hace 20 dias, 1, true)</t>
+  </si>
+  <si>
+    <t>Furgoneta("4684", 50, 12.5, false)</t>
+  </si>
+  <si>
+    <t>Furgoneta("4684", null, 12.5, false)</t>
+  </si>
+  <si>
+    <t>Furgoneta("5616", hoy, -0.99, true)</t>
+  </si>
+  <si>
+    <t>Furgoneta("5616", hoy, "hola", true)</t>
+  </si>
+  <si>
+    <t>Furgoneta("5616", hoy,null, true)</t>
+  </si>
+  <si>
+    <t>Furgoneta("5616", hoy, "hola, null)</t>
+  </si>
+  <si>
+    <t>Id valores</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>id valores</t>
+  </si>
+  <si>
+    <t>double &gt;0(3)</t>
+  </si>
+  <si>
+    <t>!string(4), null(5)</t>
+  </si>
+  <si>
+    <t>!fecha(6), null(7)</t>
+  </si>
+  <si>
+    <t>!double(8), &lt;=0(9) null(10)</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>PrecioImpuesto()</t>
+  </si>
+  <si>
+    <t>precioImpuesto()</t>
+  </si>
+  <si>
+    <t>Clase Motocicleta</t>
+  </si>
+  <si>
+    <t>Motocicleta</t>
+  </si>
+  <si>
+    <t>3. 49</t>
+  </si>
+  <si>
+    <t>Motocicleta("1234", hoy, 40)</t>
+  </si>
+  <si>
+    <t>Motocicleta(45, mañana, 12.5)</t>
+  </si>
+  <si>
+    <t>Motocicleta(null, ayer, 1)</t>
+  </si>
+  <si>
+    <t>Motocicleta("1234", 12, 21)</t>
+  </si>
+  <si>
+    <t>Motocicleta("1234", hoy, "hola")</t>
+  </si>
+  <si>
+    <t>Motocicleta("1234", hoy, null)</t>
+  </si>
+  <si>
+    <t>Motocicleta("1234", null, 51)</t>
+  </si>
+  <si>
+    <t>Motocicleta("1234", hoy, -50)</t>
+  </si>
+  <si>
+    <t>("1234", LocalDate.now(), 1):</t>
+  </si>
+  <si>
+    <t>("1234", LocalDate.now(), 50):</t>
+  </si>
+  <si>
+    <t>("1234", LocalDate.now(), 125):</t>
+  </si>
+  <si>
+    <t>("1234", LocalDate.now(), 249):</t>
+  </si>
+  <si>
+    <t>("1234", LocalDate.now(), 250):</t>
+  </si>
+  <si>
+    <t>("1234", LocalDate.now(), 499):</t>
+  </si>
+  <si>
+    <t>("1234", LocalDate.now(), 500):</t>
+  </si>
+  <si>
+    <t>("1234", LocalDate.now(), 999):</t>
+  </si>
+  <si>
+    <t>("1234", LocalDate.now(), 1000):</t>
+  </si>
+  <si>
+    <t>("1234", LocalDate.now().minusYears(25), 1748):</t>
+  </si>
+  <si>
+    <t>("1234", LocalDate.now()minusYears(26), 500):</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +444,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,8 +501,26 @@
         <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor theme="4" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -427,11 +623,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -450,8 +755,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -460,18 +763,61 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -498,22 +844,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}" name="Tabla2" displayName="Tabla2" ref="G4:H15" totalsRowShown="0">
-  <autoFilter ref="G4:H15" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}" name="Tabla2" displayName="Tabla2" ref="L4:M15" totalsRowShown="0">
+  <autoFilter ref="L4:M15" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EBA2B40D-7824-4711-AC26-09AAE2E789F1}" name="Casos de Prueba" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{8C7346ED-F76B-4CF5-BA59-AAA305746A9E}" name="ValorEsperado" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EBA2B40D-7824-4711-AC26-09AAE2E789F1}" name="Casos de Prueba" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8C7346ED-F76B-4CF5-BA59-AAA305746A9E}" name="ValorEsperado" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}" name="Tabla22" displayName="Tabla22" ref="G24:H36" totalsRowShown="0">
-  <autoFilter ref="G24:H36" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}" name="Tabla22" displayName="Tabla22" ref="L27:M39" totalsRowShown="0">
+  <autoFilter ref="L27:M39" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6E82589E-C63F-4924-955F-D0E664A60B7B}" name="Casos de Prueba" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{02EF6B4E-8FA0-4E1C-981C-E745CCB96025}" name="ValorEsperado" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6E82589E-C63F-4924-955F-D0E664A60B7B}" name="Casos de Prueba" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{02EF6B4E-8FA0-4E1C-981C-E745CCB96025}" name="ValorEsperado" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E54209B0-68A6-464C-BE3E-670C4EE59A28}" name="Tabla24" displayName="Tabla24" ref="L49:M60" totalsRowShown="0">
+  <autoFilter ref="L49:M60" xr:uid="{E54209B0-68A6-464C-BE3E-670C4EE59A28}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D918EA40-880F-4EF6-BC88-2623B914B94D}" name="Casos de Prueba" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{9CFA7683-A0A0-4800-B0FC-D74FD4FF190E}" name="ValorEsperado" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -816,405 +1173,790 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275440AC-4520-4206-A9FA-8D187B524CA7}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="53" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="53.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="31">
+        <v>4</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="4">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="23">
+        <v>5</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="4">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="31">
+        <v>6</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="4">
+        <v>68.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="23">
+        <v>7</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="4">
+        <v>68.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="31">
+        <v>8</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="4">
+        <v>143.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="23">
+        <v>9</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="M10" s="4">
+        <v>143.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="31">
+        <v>10</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="4">
+        <v>179.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="4">
+        <v>179.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="L15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="B28" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="4">
         <v>25.24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="4">
-        <v>25.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="4">
-        <v>68.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="4">
-        <v>68.16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="4">
-        <v>143.88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="4">
-        <v>143.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="4">
-        <v>179.22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="4">
-        <v>179.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="B29" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="23">
+        <v>5</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="4">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="G15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="4">
-        <v>25.24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="M29" s="4">
         <f>25.24*0.8</f>
         <v>20.192</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="B30" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="31">
+        <v>6</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="4">
         <f>68.16*0.8</f>
         <v>54.527999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="4">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="23">
+        <v>7</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M31" s="4">
         <v>68.16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F32" s="31">
+        <v>8</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="4">
         <v>143.88</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="4">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="23">
+        <v>9</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="4">
         <f>143.88*0.8</f>
         <v>115.104</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="4">
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="F34" s="31">
+        <v>10</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34" s="4">
         <f>179.22*0.8</f>
         <v>143.376</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="4">
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="23">
+        <v>11</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" s="4">
         <v>179.22</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="F36" s="31">
+        <v>12</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="4">
         <f>224*0.8</f>
         <v>179.20000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="F37" s="23">
+        <v>13</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" s="4">
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" s="4">
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="L38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M38" s="4">
         <f>224*0.8</f>
         <v>179.20000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36" s="4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G47" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L48" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="31">
+        <v>4</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L50" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="M50" s="4">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="23">
+        <v>5</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="L51" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="M51" s="4">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="31">
+        <v>6</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L52" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="M52" s="4">
+        <v>68.16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F53" s="23">
+        <v>7</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L53" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="M53" s="4">
+        <v>68.16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F54" s="31">
+        <v>8</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L54" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="M54" s="4">
+        <v>143.88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="23">
+        <v>9</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L55" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="M55" s="4">
+        <v>143.88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="31">
+        <v>10</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="L56" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="M56" s="4">
+        <v>179.22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L57" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="M57" s="4">
+        <v>179.22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L58" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="M58" s="4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="M59" s="4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="L60" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="M60" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/tecnicaCajaNegra.xlsx
+++ b/tecnicaCajaNegra.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Moodle\Tercer Curso\SegundoCuatrimestre\IngenieriaSoftwareII\IS2_2122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A970512-0A6D-4F65-91D4-8600E25B76BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2273D3-B945-487D-9F0A-4C067A3BE2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
   </bookViews>
   <sheets>
     <sheet name="CajaNegra" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="ListaOrdenadaAcotada" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,55 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="129">
-  <si>
-    <t>TURISMO</t>
-  </si>
-  <si>
-    <t>CASOS VALIDOS</t>
-  </si>
-  <si>
-    <t>CASOS NO VALIDOS</t>
-  </si>
-  <si>
-    <t>MOTOCICLETA</t>
-  </si>
-  <si>
-    <t>FURGONETA</t>
-  </si>
-  <si>
-    <t>getPotencia</t>
-  </si>
-  <si>
-    <t>precioImpuesto</t>
-  </si>
-  <si>
-    <t>getCilindrada</t>
-  </si>
-  <si>
-    <t>furgoneta</t>
-  </si>
-  <si>
-    <t>getComercial</t>
-  </si>
-  <si>
-    <t>turismo(potencia)</t>
-  </si>
-  <si>
-    <t>potencia &lt; 0 ,null</t>
-  </si>
-  <si>
-    <t>potencia&gt;0</t>
-  </si>
-  <si>
-    <t>cilindrada&gt;0</t>
-  </si>
-  <si>
-    <t>cilindrada &lt; 0 ,null</t>
-  </si>
-  <si>
-    <t>motocicleta(cilindrada)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="201">
   <si>
     <t>Turismo</t>
   </si>
@@ -423,13 +375,286 @@
   </si>
   <si>
     <t>("1234", LocalDate.now()minusYears(26), 500):</t>
+  </si>
+  <si>
+    <t>IListaOrdenadaAcotada</t>
+  </si>
+  <si>
+    <t>Método</t>
+  </si>
+  <si>
+    <t>Parámetro</t>
+  </si>
+  <si>
+    <t>Clases Válidas</t>
+  </si>
+  <si>
+    <t>Clases no Validas</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>clear()</t>
+  </si>
+  <si>
+    <t>indice</t>
+  </si>
+  <si>
+    <t>elemento</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>lista con elementos, lista vacía</t>
+  </si>
+  <si>
+    <t>lista con elementos, lista vacia</t>
+  </si>
+  <si>
+    <t>indice, int,
+lista con elementos</t>
+  </si>
+  <si>
+    <t>Casos De Prueba</t>
+  </si>
+  <si>
+    <t>Metodo</t>
+  </si>
+  <si>
+    <t>Casos</t>
+  </si>
+  <si>
+    <t>Devolucion</t>
+  </si>
+  <si>
+    <t>get(0)</t>
+  </si>
+  <si>
+    <t>get(size -1)</t>
+  </si>
+  <si>
+    <t>([2,6,8,9])</t>
+  </si>
+  <si>
+    <t>:2</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>([])</t>
+  </si>
+  <si>
+    <t>([1])</t>
+  </si>
+  <si>
+    <t>:1</t>
+  </si>
+  <si>
+    <t>:6</t>
+  </si>
+  <si>
+    <t>:5</t>
+  </si>
+  <si>
+    <t>add(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null
+size&gt;=MAX_ELEM
+</t>
+  </si>
+  <si>
+    <t>indice &lt; size,
+lista con elementos</t>
+  </si>
+  <si>
+    <t>e, !null,
+lista con elementos, lista vacia
+size&lt;MAX_ELEM</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>add(8)</t>
+  </si>
+  <si>
+    <t>(2,[])</t>
+  </si>
+  <si>
+    <t>([5])</t>
+  </si>
+  <si>
+    <t>([3,6,8,9,5])</t>
+  </si>
+  <si>
+    <t>(8,[2])</t>
+  </si>
+  <si>
+    <t>[2,8]</t>
+  </si>
+  <si>
+    <t>MAX_ELEM=4</t>
+  </si>
+  <si>
+    <t>add(4)</t>
+  </si>
+  <si>
+    <t>(4,[2,8])</t>
+  </si>
+  <si>
+    <t>[2,4,8]</t>
+  </si>
+  <si>
+    <t>add(7)</t>
+  </si>
+  <si>
+    <t>(7,[2,4,8])</t>
+  </si>
+  <si>
+    <t>[2,4,7,8]</t>
+  </si>
+  <si>
+    <t>remove(0)</t>
+  </si>
+  <si>
+    <t>(0,[2,4,7,8])</t>
+  </si>
+  <si>
+    <t>:2, [4,7,8]</t>
+  </si>
+  <si>
+    <t>remove(1)</t>
+  </si>
+  <si>
+    <t>remove(2)</t>
+  </si>
+  <si>
+    <t>:8, [4,7]</t>
+  </si>
+  <si>
+    <t>(2,[4,7,8])</t>
+  </si>
+  <si>
+    <t>(1,[4,7])</t>
+  </si>
+  <si>
+    <t>:7, [4]</t>
+  </si>
+  <si>
+    <t>(0,[4])</t>
+  </si>
+  <si>
+    <t>:4, []</t>
+  </si>
+  <si>
+    <t>size()</t>
+  </si>
+  <si>
+    <t>lista vacía
+indice&gt;=size, indice&lt;0</t>
+  </si>
+  <si>
+    <t>lista vacía,
+indice&gt;=size
+indice&lt;0</t>
+  </si>
+  <si>
+    <t>([2,4,7])</t>
+  </si>
+  <si>
+    <t>:3</t>
+  </si>
+  <si>
+    <t>:0</t>
+  </si>
+  <si>
+    <t>([2,4,6,7])</t>
+  </si>
+  <si>
+    <t>Casos No Válidos</t>
+  </si>
+  <si>
+    <t>MAX_ELEM = 4</t>
+  </si>
+  <si>
+    <t>IndexOutOfBoundsException</t>
+  </si>
+  <si>
+    <t>(0,[])</t>
+  </si>
+  <si>
+    <t>get(4)</t>
+  </si>
+  <si>
+    <t>(4,[1,3,9])</t>
+  </si>
+  <si>
+    <t>(3,[1,3,9])</t>
+  </si>
+  <si>
+    <t>get(-1)</t>
+  </si>
+  <si>
+    <t>(-1,[1,3,9])</t>
+  </si>
+  <si>
+    <t>get(3)</t>
+  </si>
+  <si>
+    <t>NullPointerException</t>
+  </si>
+  <si>
+    <t>add(null)</t>
+  </si>
+  <si>
+    <t>(null,[])</t>
+  </si>
+  <si>
+    <t>add(10)</t>
+  </si>
+  <si>
+    <t>IllegalStateException</t>
+  </si>
+  <si>
+    <t>(1, [])</t>
+  </si>
+  <si>
+    <t>(10,[1,5,6,9])</t>
+  </si>
+  <si>
+    <t>(7, [1,5,6,9])</t>
+  </si>
+  <si>
+    <t>remove(7)</t>
+  </si>
+  <si>
+    <t>remove(-3)</t>
+  </si>
+  <si>
+    <t>(-7, [1,5,6,9])</t>
+  </si>
+  <si>
+    <t>En el método add habria que comprobar tambien que se añade adecuadamente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,8 +700,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,8 +750,26 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -732,18 +981,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -807,16 +1226,137 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -847,8 +1387,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}" name="Tabla2" displayName="Tabla2" ref="L4:M15" totalsRowShown="0">
   <autoFilter ref="L4:M15" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EBA2B40D-7824-4711-AC26-09AAE2E789F1}" name="Casos de Prueba" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8C7346ED-F76B-4CF5-BA59-AAA305746A9E}" name="ValorEsperado" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EBA2B40D-7824-4711-AC26-09AAE2E789F1}" name="Casos de Prueba" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{8C7346ED-F76B-4CF5-BA59-AAA305746A9E}" name="ValorEsperado" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -858,8 +1398,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}" name="Tabla22" displayName="Tabla22" ref="L27:M39" totalsRowShown="0">
   <autoFilter ref="L27:M39" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6E82589E-C63F-4924-955F-D0E664A60B7B}" name="Casos de Prueba" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{02EF6B4E-8FA0-4E1C-981C-E745CCB96025}" name="ValorEsperado" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6E82589E-C63F-4924-955F-D0E664A60B7B}" name="Casos de Prueba" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{02EF6B4E-8FA0-4E1C-981C-E745CCB96025}" name="ValorEsperado" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -869,10 +1409,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E54209B0-68A6-464C-BE3E-670C4EE59A28}" name="Tabla24" displayName="Tabla24" ref="L49:M60" totalsRowShown="0">
   <autoFilter ref="L49:M60" xr:uid="{E54209B0-68A6-464C-BE3E-670C4EE59A28}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D918EA40-880F-4EF6-BC88-2623B914B94D}" name="Casos de Prueba" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{9CFA7683-A0A0-4800-B0FC-D74FD4FF190E}" name="ValorEsperado" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D918EA40-880F-4EF6-BC88-2623B914B94D}" name="Casos de Prueba" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{9CFA7683-A0A0-4800-B0FC-D74FD4FF190E}" name="ValorEsperado" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D2A277E9-2F6E-4AE7-B28F-83A3D52D324A}" name="Tabla4" displayName="Tabla4" ref="A2:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A2:D7" xr:uid="{D2A277E9-2F6E-4AE7-B28F-83A3D52D324A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4729E252-A4AF-47EF-B45C-B9482DA0AF89}" name="Método" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A3861FDD-F0CE-4EC1-B319-6119E6C22D0C}" name="Parámetro" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{29158164-4683-49A4-8AB9-898AE61E3B4B}" name="Clases Válidas" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A3BE4BC9-2E29-4331-8F23-AA4413382F6D}" name="Clases no Validas" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1175,7 +1728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275440AC-4520-4206-A9FA-8D187B524CA7}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
@@ -1194,759 +1747,759 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="29">
+        <v>4</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="21">
+        <v>5</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G2" s="30" t="s">
+      <c r="M6" s="2">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="29">
+        <v>6</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="M7" s="2">
+        <v>68.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="21">
+        <v>7</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="2">
+        <v>68.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="29">
+        <v>8</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="2">
+        <v>143.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="21">
+        <v>9</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="2">
+        <v>143.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="29">
+        <v>10</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="2">
+        <v>179.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="2">
+        <v>179.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="L15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="31">
-        <v>4</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="4">
-        <v>25.24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="23">
-        <v>5</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="4">
-        <v>25.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="31">
-        <v>6</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="4">
-        <v>68.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F8" s="23">
-        <v>7</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="4">
-        <v>68.16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F9" s="31">
-        <v>8</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="4">
-        <v>143.88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="23">
-        <v>9</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="4">
-        <v>143.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="31">
-        <v>10</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="4">
-        <v>179.22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="4">
-        <v>179.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="4">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="L15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="4">
+      <c r="M15" s="2">
         <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="43" t="s">
-        <v>106</v>
+      <c r="G26" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="41" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>23</v>
+      <c r="A27" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28" s="4">
+      <c r="A28" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="2">
         <v>25.24</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="23">
+      <c r="A29" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" s="4">
+      <c r="B29" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="21">
+        <v>5</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="2">
         <f>25.24*0.8</f>
         <v>20.192</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="31">
+      <c r="A30" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" s="4">
+      <c r="B30" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="29">
+        <v>6</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="2">
         <f>68.16*0.8</f>
         <v>54.527999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="23">
+      <c r="A31" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="21">
         <v>7</v>
       </c>
-      <c r="G31" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M31" s="4">
+      <c r="G31" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="2">
         <v>68.16</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F32" s="31">
+      <c r="F32" s="29">
         <v>8</v>
       </c>
-      <c r="G32" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M32" s="4">
+      <c r="G32" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="2">
         <v>143.88</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="23">
+      <c r="F33" s="21">
         <v>9</v>
       </c>
-      <c r="G33" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="4">
+      <c r="G33" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="2">
         <f>143.88*0.8</f>
         <v>115.104</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="F34" s="31">
+      <c r="A34" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="F34" s="29">
         <v>10</v>
       </c>
-      <c r="G34" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M34" s="4">
+      <c r="G34" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="2">
         <f>179.22*0.8</f>
         <v>143.376</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="23">
+      <c r="A35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="21">
         <v>11</v>
       </c>
-      <c r="G35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M35" s="4">
+      <c r="G35" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="2">
         <v>179.22</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="F36" s="31">
+      <c r="A36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="F36" s="29">
         <v>12</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M36" s="4">
+      <c r="G36" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" s="2">
         <f>224*0.8</f>
         <v>179.20000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="F37" s="23">
+      <c r="A37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="F37" s="21">
         <v>13</v>
       </c>
-      <c r="G37" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M37" s="4">
+      <c r="G37" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M37" s="2">
         <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="L38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M38" s="4">
+      <c r="A38" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="L38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="2">
         <f>224*0.8</f>
         <v>179.20000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M39" s="4">
+      <c r="L39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G47" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="29">
+        <v>4</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="L50" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="M50" s="2">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="21">
+        <v>5</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="L51" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="M51" s="2">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="29">
+        <v>6</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="L52" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="M52" s="2">
+        <v>68.16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F53" s="21">
+        <v>7</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L53" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="M53" s="2">
+        <v>68.16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F54" s="29">
+        <v>8</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="M54" s="2">
+        <v>143.88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="21">
+        <v>9</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="L55" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G47" s="30" t="s">
+      <c r="M55" s="2">
+        <v>143.88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="29">
+        <v>10</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="L56" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F48" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L48" s="43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G49" s="23" t="s">
+      <c r="M56" s="2">
+        <v>179.22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L57" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="M57" s="2">
+        <v>179.22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L58" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="L49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F50" s="31">
-        <v>4</v>
-      </c>
-      <c r="G50" s="24" t="s">
+      <c r="M58" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L59" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="L50" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="M50" s="4">
-        <v>8.84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="23">
-        <v>5</v>
-      </c>
-      <c r="G51" s="23" t="s">
+      <c r="M59" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="L60" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="L51" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="M51" s="4">
-        <v>25.24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F52" s="31">
-        <v>6</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="L52" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="M52" s="4">
-        <v>68.16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F53" s="23">
-        <v>7</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="L53" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="M53" s="4">
-        <v>68.16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F54" s="31">
-        <v>8</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="L54" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="M54" s="4">
-        <v>143.88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F55" s="23">
-        <v>9</v>
-      </c>
-      <c r="G55" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="L55" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="M55" s="4">
-        <v>143.88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F56" s="31">
-        <v>10</v>
-      </c>
-      <c r="G56" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="L56" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="M56" s="4">
-        <v>179.22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L57" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="M57" s="4">
-        <v>179.22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L58" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="M58" s="4">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L59" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="M59" s="4">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="L60" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="M60" s="4">
+      <c r="M60" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1962,113 +2515,481 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EB088C-FC0A-4755-A918-62E77BA3612A}">
-  <dimension ref="B4:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387CFE5F-C44C-4C88-9E0E-9757B7251501}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L8" t="s">
-        <v>6</v>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="H10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="G13" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="G14" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="63"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16" s="85" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="78"/>
+      <c r="B17" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="I17" s="69" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="78"/>
+      <c r="B18" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="80"/>
+      <c r="B19" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="83"/>
+      <c r="G19" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="84"/>
+      <c r="G20" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="61"/>
+      <c r="B21" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="86"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="77"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="61"/>
+      <c r="B22" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="87"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="88"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="63"/>
+      <c r="B23" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="80"/>
+      <c r="B25" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/tecnicaCajaNegra.xlsx
+++ b/tecnicaCajaNegra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Moodle\Tercer Curso\SegundoCuatrimestre\IngenieriaSoftwareII\IS2_2122\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolam\Desktop\UNI\2º-CUATRI\INGENIERIA DEL SOFTWARE 2\IS2_2122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2273D3-B945-487D-9F0A-4C067A3BE2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6DA196-61A6-4D7A-BD16-CC21A8DF6AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
+    <workbookView xWindow="10452" yWindow="3120" windowWidth="10140" windowHeight="8016" activeTab="1" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
   </bookViews>
   <sheets>
     <sheet name="CajaNegra" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="200">
   <si>
     <t>Turismo</t>
   </si>
@@ -539,21 +538,6 @@
     <t>remove(1)</t>
   </si>
   <si>
-    <t>remove(2)</t>
-  </si>
-  <si>
-    <t>:8, [4,7]</t>
-  </si>
-  <si>
-    <t>(2,[4,7,8])</t>
-  </si>
-  <si>
-    <t>(1,[4,7])</t>
-  </si>
-  <si>
-    <t>:7, [4]</t>
-  </si>
-  <si>
     <t>(0,[4])</t>
   </si>
   <si>
@@ -644,17 +628,29 @@
     <t>remove(-3)</t>
   </si>
   <si>
-    <t>(-7, [1,5,6,9])</t>
-  </si>
-  <si>
     <t>En el método add habria que comprobar tambien que se añade adecuadamente.</t>
+  </si>
+  <si>
+    <t>(1,[4,7,8])</t>
+  </si>
+  <si>
+    <t>:7, [4,8]</t>
+  </si>
+  <si>
+    <t>:8, [4]</t>
+  </si>
+  <si>
+    <t>(1,[4,8])</t>
+  </si>
+  <si>
+    <t>(-3, [1,5,6,9])</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,68 +1222,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1302,33 +1259,72 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1732,30 +1728,30 @@
       <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="53.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="53.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="G2" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" thickBot="1">
       <c r="F3" s="20" t="s">
         <v>83</v>
       </c>
@@ -1766,7 +1762,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
@@ -1789,7 +1785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
@@ -1812,7 +1808,7 @@
         <v>25.24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
@@ -1835,7 +1831,7 @@
         <v>25.24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
@@ -1858,7 +1854,7 @@
         <v>68.16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="F8" s="21">
         <v>7</v>
       </c>
@@ -1872,7 +1868,7 @@
         <v>68.16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="F9" s="29">
         <v>8</v>
       </c>
@@ -1886,7 +1882,7 @@
         <v>143.88</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" thickBot="1">
       <c r="F10" s="21">
         <v>9</v>
       </c>
@@ -1900,7 +1896,7 @@
         <v>143.88</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" thickBot="1">
       <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
@@ -1917,7 +1913,7 @@
         <v>179.22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="15" t="s">
         <v>46</v>
       </c>
@@ -1934,7 +1930,7 @@
         <v>179.22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -1951,7 +1947,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
         <v>63</v>
       </c>
@@ -1968,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>47</v>
       </c>
@@ -1983,12 +1979,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="16.2" thickBot="1">
       <c r="G26" s="28" t="s">
         <v>24</v>
       </c>
@@ -1996,7 +1992,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" thickBot="1">
       <c r="A27" s="30" t="s">
         <v>24</v>
       </c>
@@ -2019,7 +2015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="31" t="s">
         <v>4</v>
       </c>
@@ -2042,7 +2038,7 @@
         <v>25.24</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="32" t="s">
         <v>5</v>
       </c>
@@ -2066,7 +2062,7 @@
         <v>20.192</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="31" t="s">
         <v>6</v>
       </c>
@@ -2090,7 +2086,7 @@
         <v>54.527999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1">
       <c r="A31" s="33" t="s">
         <v>25</v>
       </c>
@@ -2113,7 +2109,7 @@
         <v>68.16</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="F32" s="29">
         <v>8</v>
       </c>
@@ -2127,7 +2123,7 @@
         <v>143.88</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15" thickBot="1">
       <c r="F33" s="21">
         <v>9</v>
       </c>
@@ -2142,7 +2138,7 @@
         <v>115.104</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15" thickBot="1">
       <c r="A34" s="18" t="s">
         <v>21</v>
       </c>
@@ -2163,7 +2159,7 @@
         <v>143.376</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15" thickBot="1">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
@@ -2189,7 +2185,7 @@
         <v>179.22</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
         <v>22</v>
       </c>
@@ -2214,7 +2210,7 @@
         <v>179.20000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="4" t="s">
         <v>23</v>
       </c>
@@ -2238,7 +2234,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15" thickBot="1">
       <c r="A38" s="12" t="s">
         <v>26</v>
       </c>
@@ -2257,7 +2253,7 @@
         <v>179.20000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="L39" s="1" t="s">
         <v>39</v>
       </c>
@@ -2265,17 +2261,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.6">
       <c r="G47" s="28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15" thickBot="1">
       <c r="F48" s="20" t="s">
         <v>83</v>
       </c>
@@ -2286,7 +2282,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="30" t="s">
         <v>92</v>
       </c>
@@ -2309,7 +2305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="31" t="s">
         <v>4</v>
       </c>
@@ -2332,7 +2328,7 @@
         <v>8.84</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="32" t="s">
         <v>5</v>
       </c>
@@ -2355,7 +2351,7 @@
         <v>25.24</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15" thickBot="1">
       <c r="A52" s="38" t="s">
         <v>6</v>
       </c>
@@ -2378,7 +2374,7 @@
         <v>68.16</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="F53" s="21">
         <v>7</v>
       </c>
@@ -2392,7 +2388,7 @@
         <v>68.16</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="F54" s="29">
         <v>8</v>
       </c>
@@ -2406,7 +2402,7 @@
         <v>143.88</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15" thickBot="1">
       <c r="F55" s="21">
         <v>9</v>
       </c>
@@ -2420,7 +2416,7 @@
         <v>143.88</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" thickBot="1">
       <c r="A56" s="19" t="s">
         <v>21</v>
       </c>
@@ -2437,7 +2433,7 @@
         <v>179.22</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="15" t="s">
         <v>46</v>
       </c>
@@ -2454,7 +2450,7 @@
         <v>179.22</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="9" t="s">
         <v>22</v>
       </c>
@@ -2471,7 +2467,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="7" t="s">
         <v>93</v>
       </c>
@@ -2488,7 +2484,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15" thickBot="1">
       <c r="A60" s="11" t="s">
         <v>47</v>
       </c>
@@ -2518,28 +2514,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387CFE5F-C44C-4C88-9E0E-9757B7251501}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:9" ht="15.6">
+      <c r="A1" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="42"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
@@ -2553,49 +2549,49 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="45.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="47.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="49" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="43.2">
       <c r="A5" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>121</v>
       </c>
@@ -2605,7 +2601,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>125</v>
       </c>
@@ -2615,355 +2611,355 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+    <row r="9" spans="1:9">
+      <c r="F9" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="71"/>
       <c r="C10" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="88" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="88"/>
+      <c r="H10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1">
+      <c r="A11" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="77"/>
+      <c r="I11" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="73"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="73"/>
+      <c r="G13" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="73"/>
+      <c r="B14" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="73"/>
+      <c r="G14" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="54" t="s">
+      <c r="I14" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1">
+      <c r="A15" s="74"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="74"/>
+      <c r="G15" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="I12" s="60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="46" t="s">
+      <c r="I15" s="53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="66" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1">
+      <c r="A17" s="78"/>
+      <c r="B17" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="84"/>
+      <c r="G17" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="I13" s="62" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="I14" s="62" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="I15" s="64" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="66" t="s">
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="78"/>
+      <c r="B18" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1">
+      <c r="A19" s="76"/>
+      <c r="B19" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="86"/>
+      <c r="G19" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="85" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
-      <c r="B17" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="H17" s="52" t="s">
+      <c r="I19" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1">
+      <c r="A20" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="87"/>
+      <c r="G20" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1">
+      <c r="A21" s="73"/>
+      <c r="B21" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="I17" s="69" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="79" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="54" t="s">
+      <c r="D21" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="67"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="63"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1">
+      <c r="A22" s="73"/>
+      <c r="B22" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="H18" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="I18" s="60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="80"/>
-      <c r="B19" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="46" t="s">
+      <c r="C22" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="H19" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="I19" s="62" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="54" t="s">
+      <c r="F22" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="68"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="69"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1">
+      <c r="A23" s="74"/>
+      <c r="B23" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="I20" s="64" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-      <c r="B21" s="46" t="s">
+      <c r="C23" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="D23" s="62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="86"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="77"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="72" t="s">
+      <c r="C24" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1">
+      <c r="A25" s="76"/>
+      <c r="B25" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="87"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="88"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63"/>
-      <c r="B23" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="77" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="80"/>
-      <c r="B25" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="52" t="s">
+      <c r="B26" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="81" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="54" t="s">
+      <c r="D26" s="60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1">
+      <c r="A27" s="74"/>
+      <c r="B27" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="63"/>
-      <c r="B27" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="75" t="s">
+      <c r="C27" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="62" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2975,6 +2971,8 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="F12:F15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -2983,8 +2981,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tecnicaCajaNegra.xlsx
+++ b/tecnicaCajaNegra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolam\Desktop\UNI\2º-CUATRI\INGENIERIA DEL SOFTWARE 2\IS2_2122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6DA196-61A6-4D7A-BD16-CC21A8DF6AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBBB899-72E8-4C06-BD6C-FE9EEBC64BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10452" yWindow="3120" windowWidth="10140" windowHeight="8016" activeTab="1" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
   </bookViews>
@@ -616,9 +616,6 @@
     <t>(1, [])</t>
   </si>
   <si>
-    <t>(10,[1,5,6,9])</t>
-  </si>
-  <si>
     <t>(7, [1,5,6,9])</t>
   </si>
   <si>
@@ -644,6 +641,9 @@
   </si>
   <si>
     <t>(-3, [1,5,6,9])</t>
+  </si>
+  <si>
+    <t>(10,[2,4,7,8])</t>
   </si>
 </sst>
 </file>
@@ -1268,30 +1268,51 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1302,27 +1323,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2514,8 +2514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387CFE5F-C44C-4C88-9E0E-9757B7251501}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2530,10 +2530,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -2612,25 +2612,25 @@
       <c r="D7" s="3"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="F9" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
+      <c r="F9" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="71"/>
+      <c r="B10" s="82"/>
       <c r="C10" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="88"/>
+      <c r="G10" s="76"/>
       <c r="H10" t="s">
         <v>175</v>
       </c>
@@ -2658,10 +2658,10 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="88" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="48" t="s">
@@ -2670,7 +2670,7 @@
       <c r="D12" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="78" t="s">
         <v>118</v>
       </c>
       <c r="G12" s="48" t="s">
@@ -2684,15 +2684,15 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="73"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="43" t="s">
         <v>139</v>
       </c>
       <c r="D13" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="73"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="43" t="s">
         <v>183</v>
       </c>
@@ -2704,8 +2704,8 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="73"/>
-      <c r="B14" s="79" t="s">
+      <c r="A14" s="79"/>
+      <c r="B14" s="86" t="s">
         <v>134</v>
       </c>
       <c r="C14" s="43" t="s">
@@ -2714,7 +2714,7 @@
       <c r="D14" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="73"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="43" t="s">
         <v>178</v>
       </c>
@@ -2726,15 +2726,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="45" t="s">
         <v>150</v>
       </c>
       <c r="D15" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="45" t="s">
         <v>181</v>
       </c>
@@ -2746,7 +2746,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="83" t="s">
         <v>119</v>
       </c>
       <c r="B16" s="46" t="s">
@@ -2758,7 +2758,7 @@
       <c r="D16" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="71" t="s">
         <v>119</v>
       </c>
       <c r="G16" s="46" t="s">
@@ -2772,7 +2772,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1">
-      <c r="A17" s="78"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="44" t="s">
         <v>148</v>
       </c>
@@ -2782,19 +2782,19 @@
       <c r="D17" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="84"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="55" t="s">
         <v>187</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I17" s="56" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="78"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="44" t="s">
         <v>155</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="D18" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="85" t="s">
+      <c r="F18" s="73" t="s">
         <v>120</v>
       </c>
       <c r="G18" s="48" t="s">
@@ -2818,7 +2818,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1">
-      <c r="A19" s="76"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="47" t="s">
         <v>158</v>
       </c>
@@ -2828,19 +2828,19 @@
       <c r="D19" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="86"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I19" s="52" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="78" t="s">
         <v>120</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -2852,27 +2852,27 @@
       <c r="D20" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="87"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I20" s="53" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
-      <c r="A21" s="73"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="43" t="s">
         <v>164</v>
       </c>
       <c r="C21" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="61" t="s">
         <v>195</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>196</v>
       </c>
       <c r="F21" s="58" t="s">
         <v>121</v>
@@ -2882,15 +2882,15 @@
       <c r="I21" s="63"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1">
-      <c r="A22" s="73"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="43" t="s">
         <v>164</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F22" s="59" t="s">
         <v>125</v>
@@ -2900,7 +2900,7 @@
       <c r="I22" s="69"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1">
-      <c r="A23" s="74"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="45" t="s">
         <v>161</v>
       </c>
@@ -2912,7 +2912,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="83" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="46" t="s">
@@ -2926,7 +2926,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1">
-      <c r="A25" s="76"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="47" t="s">
         <v>167</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="78" t="s">
         <v>125</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -2952,7 +2952,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1">
-      <c r="A27" s="74"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="45" t="s">
         <v>122</v>
       </c>
@@ -2965,12 +2965,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="F12:F15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A20:A23"/>
@@ -2981,6 +2975,12 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="F12:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tecnicaCajaNegra.xlsx
+++ b/tecnicaCajaNegra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolam\Desktop\UNI\2º-CUATRI\INGENIERIA DEL SOFTWARE 2\IS2_2122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBBB899-72E8-4C06-BD6C-FE9EEBC64BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F8C588-EFD9-4EEC-B12E-80DE952C90DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10452" yWindow="3120" windowWidth="10140" windowHeight="8016" activeTab="1" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
   </bookViews>
   <sheets>
     <sheet name="CajaNegra" sheetId="2" r:id="rId1"/>
@@ -650,7 +650,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,8 +702,14 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,24 +737,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor theme="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor theme="4" tint="-0.249977111117893"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,8 +752,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -774,87 +822,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -881,32 +854,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1157,179 +1104,355 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1348,24 +1471,6 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1380,46 +1485,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}" name="Tabla2" displayName="Tabla2" ref="L4:M15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}" name="Tabla2" displayName="Tabla2" ref="L4:M15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="6">
   <autoFilter ref="L4:M15" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EBA2B40D-7824-4711-AC26-09AAE2E789F1}" name="Casos de Prueba" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{8C7346ED-F76B-4CF5-BA59-AAA305746A9E}" name="ValorEsperado" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{EBA2B40D-7824-4711-AC26-09AAE2E789F1}" name="Casos de Prueba" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{8C7346ED-F76B-4CF5-BA59-AAA305746A9E}" name="ValorEsperado" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}" name="Tabla22" displayName="Tabla22" ref="L27:M39" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}" name="Tabla22" displayName="Tabla22" ref="L27:M39" totalsRowShown="0" headerRowDxfId="10" dataDxfId="3">
   <autoFilter ref="L27:M39" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6E82589E-C63F-4924-955F-D0E664A60B7B}" name="Casos de Prueba" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{02EF6B4E-8FA0-4E1C-981C-E745CCB96025}" name="ValorEsperado" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{6E82589E-C63F-4924-955F-D0E664A60B7B}" name="Casos de Prueba" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{02EF6B4E-8FA0-4E1C-981C-E745CCB96025}" name="ValorEsperado" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E54209B0-68A6-464C-BE3E-670C4EE59A28}" name="Tabla24" displayName="Tabla24" ref="L49:M60" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E54209B0-68A6-464C-BE3E-670C4EE59A28}" name="Tabla24" displayName="Tabla24" ref="L49:M60" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0">
   <autoFilter ref="L49:M60" xr:uid="{E54209B0-68A6-464C-BE3E-670C4EE59A28}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D918EA40-880F-4EF6-BC88-2623B914B94D}" name="Casos de Prueba" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{9CFA7683-A0A0-4800-B0FC-D74FD4FF190E}" name="ValorEsperado" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{D918EA40-880F-4EF6-BC88-2623B914B94D}" name="Casos de Prueba" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{9CFA7683-A0A0-4800-B0FC-D74FD4FF190E}" name="ValorEsperado" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D2A277E9-2F6E-4AE7-B28F-83A3D52D324A}" name="Tabla4" displayName="Tabla4" ref="A2:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D2A277E9-2F6E-4AE7-B28F-83A3D52D324A}" name="Tabla4" displayName="Tabla4" ref="A2:D7" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A2:D7" xr:uid="{D2A277E9-2F6E-4AE7-B28F-83A3D52D324A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4729E252-A4AF-47EF-B45C-B9482DA0AF89}" name="Método" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A3861FDD-F0CE-4EC1-B319-6119E6C22D0C}" name="Parámetro" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{29158164-4683-49A4-8AB9-898AE61E3B4B}" name="Clases Válidas" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A3BE4BC9-2E29-4331-8F23-AA4413382F6D}" name="Clases no Validas" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4729E252-A4AF-47EF-B45C-B9482DA0AF89}" name="Método" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{A3861FDD-F0CE-4EC1-B319-6119E6C22D0C}" name="Parámetro" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{29158164-4683-49A4-8AB9-898AE61E3B4B}" name="Clases Válidas" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A3BE4BC9-2E29-4331-8F23-AA4413382F6D}" name="Clases no Validas" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1724,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275440AC-4520-4206-A9FA-8D187B524CA7}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1747,235 +1852,242 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.6">
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1">
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="67">
         <v>4</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="77">
         <v>25.24</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="68">
         <v>5</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="78">
         <v>25.24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="67">
         <v>6</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="77">
         <v>68.16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="F8" s="21">
+      <c r="F8" s="68">
         <v>7</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="78">
         <v>68.16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="F9" s="29">
+      <c r="F9" s="67">
         <v>8</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="77">
         <v>143.88</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1">
-      <c r="F10" s="21">
+    <row r="10" spans="1:13">
+      <c r="F10" s="68">
         <v>9</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="78">
         <v>143.88</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="29">
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="F11" s="67">
         <v>10</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="77">
         <v>179.22</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="F12" s="73"/>
+      <c r="G12" s="1"/>
+      <c r="L12" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="78">
         <v>179.22</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="F13" s="73"/>
+      <c r="G13" s="1"/>
+      <c r="L13" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="77">
         <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="G14" s="1"/>
+      <c r="L14" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="78">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="L15" s="1" t="s">
+      <c r="C15" s="62"/>
+      <c r="L15" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="77">
         <v>224</v>
       </c>
     </row>
@@ -1984,282 +2096,305 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.2" thickBot="1">
-      <c r="G26" s="28" t="s">
+    <row r="26" spans="1:13" ht="15.6">
+      <c r="G26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="41" t="s">
+      <c r="L26" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="77">
         <v>25.24</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="72">
         <v>5</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="H29" s="55"/>
+      <c r="L29" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="78">
         <f>25.24*0.8</f>
         <v>20.192</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="70">
         <v>6</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="77">
         <f>68.16*0.8</f>
         <v>54.527999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1">
-      <c r="A31" s="33" t="s">
+    <row r="31" spans="1:13">
+      <c r="A31" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="72">
         <v>7</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="78">
         <v>68.16</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="F32" s="29">
+      <c r="F32" s="70">
         <v>8</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="77">
         <v>143.88</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1">
-      <c r="F33" s="21">
+    <row r="33" spans="1:13">
+      <c r="F33" s="72">
         <v>9</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="78">
         <f>143.88*0.8</f>
         <v>115.104</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:13">
+      <c r="A34" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="F34" s="29">
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="F34" s="70">
         <v>10</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="77">
         <f>179.22*0.8</f>
         <v>143.376</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:13">
+      <c r="A35" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="72">
         <v>11</v>
       </c>
-      <c r="G35" s="40" t="s">
+      <c r="G35" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="78">
         <v>179.22</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="F36" s="29">
+      <c r="D36" s="63"/>
+      <c r="F36" s="70">
         <v>12</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="77">
         <f>224*0.8</f>
         <v>179.20000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="F37" s="21">
+      <c r="D37" s="64"/>
+      <c r="F37" s="72">
         <v>13</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="J37" s="54"/>
+      <c r="L37" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="78">
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:13">
+      <c r="A38" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="L38" s="1" t="s">
+      <c r="D38" s="63"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="1"/>
+      <c r="L38" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="77">
         <f>224*0.8</f>
         <v>179.20000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="L39" s="1" t="s">
+      <c r="F39" s="73"/>
+      <c r="G39" s="1"/>
+      <c r="L39" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="78">
         <v>0</v>
       </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="F40" s="73"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
@@ -2267,239 +2402,248 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.6">
-      <c r="G47" s="28" t="s">
+      <c r="G47" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" thickBot="1">
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="L48" s="41" t="s">
+      <c r="L48" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="L49" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="65" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="67">
         <v>4</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="G50" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="L50" s="27" t="s">
+      <c r="L50" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="79">
         <v>8.84</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="68">
         <v>5</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="L51" s="27" t="s">
+      <c r="L51" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="80">
         <v>25.24</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1">
-      <c r="A52" s="38" t="s">
+    <row r="52" spans="1:13">
+      <c r="A52" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="67">
         <v>6</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="L52" s="27" t="s">
+      <c r="L52" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="79">
         <v>68.16</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="F53" s="21">
+      <c r="F53" s="68">
         <v>7</v>
       </c>
-      <c r="G53" s="21" t="s">
+      <c r="G53" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="L53" s="27" t="s">
+      <c r="L53" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="80">
         <v>68.16</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="F54" s="29">
+      <c r="F54" s="67">
         <v>8</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="L54" s="27" t="s">
+      <c r="L54" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="79">
         <v>143.88</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1">
-      <c r="F55" s="21">
+    <row r="55" spans="1:13">
+      <c r="F55" s="68">
         <v>9</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G55" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="L55" s="27" t="s">
+      <c r="L55" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="80">
         <v>143.88</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1">
-      <c r="A56" s="19" t="s">
+    <row r="56" spans="1:13">
+      <c r="A56" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="29">
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="F56" s="67">
         <v>10</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="G56" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="L56" s="27" t="s">
+      <c r="L56" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="79">
         <v>179.22</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L57" s="27" t="s">
+      <c r="G57" s="53"/>
+      <c r="L57" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M57" s="80">
         <v>179.22</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="L58" s="27" t="s">
+      <c r="G58" s="53"/>
+      <c r="L58" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="79">
         <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="L59" s="27" t="s">
+      <c r="L59" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59" s="80">
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:13">
+      <c r="A60" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="L60" s="27" t="s">
+      <c r="C60" s="62"/>
+      <c r="L60" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="79">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
@@ -2514,7 +2658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387CFE5F-C44C-4C88-9E0E-9757B7251501}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -2530,441 +2674,447 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="13" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="47.25" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="43.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="13" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="82"/>
+      <c r="B10" s="35"/>
       <c r="C10" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="76"/>
+      <c r="G10" s="52"/>
       <c r="H10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="42" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="77"/>
-      <c r="I11" s="42" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="79"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="43" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="43" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I13" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="79"/>
-      <c r="B14" s="86" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="45" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="45" t="s">
+      <c r="F15" s="38"/>
+      <c r="G15" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="17" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="30" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1">
-      <c r="A17" s="85"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="55" t="s">
+      <c r="F17" s="48"/>
+      <c r="G17" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="20" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="85"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1">
-      <c r="A19" s="84"/>
-      <c r="B19" s="47" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="74"/>
-      <c r="G19" s="43" t="s">
+      <c r="F19" s="50"/>
+      <c r="G19" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="57" t="s">
+      <c r="F20" s="51"/>
+      <c r="G20" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="17" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="43" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="63"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1">
-      <c r="A22" s="79"/>
-      <c r="B22" s="43" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="69"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="45" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="26" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="27" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1">
-      <c r="A25" s="84"/>
-      <c r="B25" s="47" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="29" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="24" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="26" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="F12:F15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A20:A23"/>
@@ -2975,12 +3125,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="F12:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tecnicaCajaNegra.xlsx
+++ b/tecnicaCajaNegra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolam\Desktop\UNI\2º-CUATRI\INGENIERIA DEL SOFTWARE 2\IS2_2122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F8C588-EFD9-4EEC-B12E-80DE952C90DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C45A225-D348-4B14-93F2-EBA600DC146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
   </bookViews>
   <sheets>
     <sheet name="CajaNegra" sheetId="2" r:id="rId1"/>
@@ -709,7 +709,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,24 +732,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -813,115 +795,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -940,45 +819,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -988,21 +833,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1018,9 +857,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1030,61 +867,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1095,206 +885,300 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1308,6 +1192,86 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1323,6 +1287,24 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1338,6 +1320,194 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1369,108 +1539,6 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1485,48 +1553,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}" name="Tabla2" displayName="Tabla2" ref="L4:M15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}" name="Tabla2" displayName="Tabla2" ref="L4:M15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="24" headerRowBorderDxfId="5">
   <autoFilter ref="L4:M15" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EBA2B40D-7824-4711-AC26-09AAE2E789F1}" name="Casos de Prueba" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8C7346ED-F76B-4CF5-BA59-AAA305746A9E}" name="ValorEsperado" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{EBA2B40D-7824-4711-AC26-09AAE2E789F1}" name="Casos de Prueba" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{8C7346ED-F76B-4CF5-BA59-AAA305746A9E}" name="ValorEsperado" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}" name="Tabla22" displayName="Tabla22" ref="L27:M39" totalsRowShown="0" headerRowDxfId="10" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}" name="Tabla22" displayName="Tabla22" ref="L27:M39" totalsRowShown="0" headerRowDxfId="14" dataDxfId="23" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
   <autoFilter ref="L27:M39" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6E82589E-C63F-4924-955F-D0E664A60B7B}" name="Casos de Prueba" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{02EF6B4E-8FA0-4E1C-981C-E745CCB96025}" name="ValorEsperado" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{6E82589E-C63F-4924-955F-D0E664A60B7B}" name="Casos de Prueba" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{02EF6B4E-8FA0-4E1C-981C-E745CCB96025}" name="ValorEsperado" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E54209B0-68A6-464C-BE3E-670C4EE59A28}" name="Tabla24" displayName="Tabla24" ref="L49:M60" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E54209B0-68A6-464C-BE3E-670C4EE59A28}" name="Tabla24" displayName="Tabla24" ref="L49:M60" totalsRowShown="0" headerRowDxfId="8" dataDxfId="22" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
   <autoFilter ref="L49:M60" xr:uid="{E54209B0-68A6-464C-BE3E-670C4EE59A28}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D918EA40-880F-4EF6-BC88-2623B914B94D}" name="Casos de Prueba" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{9CFA7683-A0A0-4800-B0FC-D74FD4FF190E}" name="ValorEsperado" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D918EA40-880F-4EF6-BC88-2623B914B94D}" name="Casos de Prueba" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{9CFA7683-A0A0-4800-B0FC-D74FD4FF190E}" name="ValorEsperado" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D2A277E9-2F6E-4AE7-B28F-83A3D52D324A}" name="Tabla4" displayName="Tabla4" ref="A2:D7" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D2A277E9-2F6E-4AE7-B28F-83A3D52D324A}" name="Tabla4" displayName="Tabla4" ref="A2:D7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A2:D7" xr:uid="{D2A277E9-2F6E-4AE7-B28F-83A3D52D324A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4729E252-A4AF-47EF-B45C-B9482DA0AF89}" name="Método" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{A3861FDD-F0CE-4EC1-B319-6119E6C22D0C}" name="Parámetro" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{29158164-4683-49A4-8AB9-898AE61E3B4B}" name="Clases Válidas" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{A3BE4BC9-2E29-4331-8F23-AA4413382F6D}" name="Clases no Validas" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{4729E252-A4AF-47EF-B45C-B9482DA0AF89}" name="Método" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A3861FDD-F0CE-4EC1-B319-6119E6C22D0C}" name="Parámetro" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{29158164-4683-49A4-8AB9-898AE61E3B4B}" name="Clases Válidas" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A3BE4BC9-2E29-4331-8F23-AA4413382F6D}" name="Clases no Validas" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1829,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275440AC-4520-4206-A9FA-8D187B524CA7}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1852,242 +1920,242 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.6">
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
-      <c r="F3" s="74" t="s">
+    <row r="3" spans="1:13">
+      <c r="F3" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="37">
         <v>4</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="77" t="s">
+      <c r="L5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="77">
+      <c r="M5" s="45">
         <v>25.24</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="35">
         <v>5</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="78" t="s">
+      <c r="L6" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="78">
+      <c r="M6" s="46">
         <v>25.24</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="37">
         <v>6</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="77" t="s">
+      <c r="L7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="77">
+      <c r="M7" s="45">
         <v>68.16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="F8" s="68">
+      <c r="F8" s="35">
         <v>7</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="78" t="s">
+      <c r="L8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="78">
+      <c r="M8" s="46">
         <v>68.16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="F9" s="67">
+      <c r="F9" s="37">
         <v>8</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="77" t="s">
+      <c r="L9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="77">
+      <c r="M9" s="45">
         <v>143.88</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="F10" s="68">
+      <c r="F10" s="35">
         <v>9</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="78">
+      <c r="M10" s="46">
         <v>143.88</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="F11" s="67">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="F11" s="37">
         <v>10</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="77" t="s">
+      <c r="L11" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="45">
         <v>179.22</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="73"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="1"/>
-      <c r="L12" s="78" t="s">
+      <c r="L12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="78">
+      <c r="M12" s="46">
         <v>179.22</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="73"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="1"/>
-      <c r="L13" s="77" t="s">
+      <c r="L13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="45">
         <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="8" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="L14" s="78" t="s">
+      <c r="L14" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="78">
+      <c r="M14" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="L15" s="77" t="s">
+      <c r="C15" s="10"/>
+      <c r="L15" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="45">
         <v>224</v>
       </c>
     </row>
@@ -2097,304 +2165,304 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.6">
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1">
-      <c r="A27" s="75" t="s">
+    <row r="27" spans="1:13">
+      <c r="A27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="74" t="s">
+      <c r="F27" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="76" t="s">
+      <c r="L27" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="65" t="s">
+      <c r="M27" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="70" t="s">
+      <c r="F28" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="71" t="s">
+      <c r="G28" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="L28" s="77" t="s">
+      <c r="L28" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="77">
+      <c r="M28" s="30">
         <v>25.24</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="72">
+      <c r="F29" s="25">
         <v>5</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="55"/>
-      <c r="L29" s="78" t="s">
+      <c r="H29" s="7"/>
+      <c r="L29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="78">
+      <c r="M29" s="32">
         <f>25.24*0.8</f>
         <v>20.192</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="70">
+      <c r="F30" s="23">
         <v>6</v>
       </c>
-      <c r="G30" s="71" t="s">
+      <c r="G30" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="77" t="s">
+      <c r="L30" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="77">
+      <c r="M30" s="30">
         <f>68.16*0.8</f>
         <v>54.527999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="72">
+      <c r="F31" s="25">
         <v>7</v>
       </c>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="L31" s="78" t="s">
+      <c r="L31" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="78">
+      <c r="M31" s="32">
         <v>68.16</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="F32" s="70">
+      <c r="F32" s="23">
         <v>8</v>
       </c>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="77" t="s">
+      <c r="L32" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="77">
+      <c r="M32" s="30">
         <v>143.88</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="F33" s="72">
+      <c r="F33" s="25">
         <v>9</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="L33" s="78" t="s">
+      <c r="L33" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="M33" s="78">
+      <c r="M33" s="32">
         <f>143.88*0.8</f>
         <v>115.104</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="F34" s="70">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="F34" s="23">
         <v>10</v>
       </c>
-      <c r="G34" s="71" t="s">
+      <c r="G34" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="L34" s="77" t="s">
+      <c r="L34" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M34" s="77">
+      <c r="M34" s="30">
         <f>179.22*0.8</f>
         <v>143.376</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="72">
+      <c r="F35" s="25">
         <v>11</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="G35" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="L35" s="78" t="s">
+      <c r="L35" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="M35" s="78">
+      <c r="M35" s="32">
         <v>179.22</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="63"/>
-      <c r="F36" s="70">
+      <c r="D36" s="11"/>
+      <c r="F36" s="23">
         <v>12</v>
       </c>
-      <c r="G36" s="71" t="s">
+      <c r="G36" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="L36" s="77" t="s">
+      <c r="L36" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="M36" s="77">
+      <c r="M36" s="30">
         <f>224*0.8</f>
         <v>179.20000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="F37" s="72">
+      <c r="D37" s="12"/>
+      <c r="F37" s="25">
         <v>13</v>
       </c>
-      <c r="G37" s="57" t="s">
+      <c r="G37" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="J37" s="54"/>
-      <c r="L37" s="78" t="s">
+      <c r="J37" s="6"/>
+      <c r="L37" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="M37" s="78">
+      <c r="M37" s="32">
         <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="C38" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="63"/>
-      <c r="F38" s="73"/>
+      <c r="D38" s="11"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="1"/>
-      <c r="L38" s="77" t="s">
+      <c r="L38" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="77">
+      <c r="M38" s="30">
         <f>224*0.8</f>
         <v>179.20000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="F39" s="73"/>
+      <c r="F39" s="13"/>
       <c r="G39" s="1"/>
-      <c r="L39" s="78" t="s">
+      <c r="L39" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="M39" s="78">
+      <c r="M39" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="F40" s="73"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
+      <c r="F40" s="13"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
@@ -2402,239 +2470,239 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.6">
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" thickBot="1">
-      <c r="F48" s="74" t="s">
+    <row r="48" spans="1:13">
+      <c r="F48" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="74" t="s">
+      <c r="G48" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="L48" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="68" t="s">
+      <c r="F49" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="69" t="s">
+      <c r="G49" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="L49" s="76" t="s">
+      <c r="L49" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M49" s="65" t="s">
+      <c r="M49" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="67">
+      <c r="F50" s="37">
         <v>4</v>
       </c>
-      <c r="G50" s="56" t="s">
+      <c r="G50" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="L50" s="79" t="s">
+      <c r="L50" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="M50" s="79">
+      <c r="M50" s="40">
         <v>8.84</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="68">
+      <c r="F51" s="35">
         <v>5</v>
       </c>
-      <c r="G51" s="69" t="s">
+      <c r="G51" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="L51" s="80" t="s">
+      <c r="L51" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="M51" s="80">
+      <c r="M51" s="42">
         <v>25.24</v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="67">
+      <c r="F52" s="37">
         <v>6</v>
       </c>
-      <c r="G52" s="56" t="s">
+      <c r="G52" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="L52" s="79" t="s">
+      <c r="L52" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="M52" s="79">
+      <c r="M52" s="40">
         <v>68.16</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="F53" s="68">
+      <c r="F53" s="35">
         <v>7</v>
       </c>
-      <c r="G53" s="69" t="s">
+      <c r="G53" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="L53" s="80" t="s">
+      <c r="L53" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="M53" s="80">
+      <c r="M53" s="42">
         <v>68.16</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="F54" s="67">
+      <c r="F54" s="37">
         <v>8</v>
       </c>
-      <c r="G54" s="56" t="s">
+      <c r="G54" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="L54" s="79" t="s">
+      <c r="L54" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="M54" s="79">
+      <c r="M54" s="40">
         <v>143.88</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="F55" s="68">
+      <c r="F55" s="35">
         <v>9</v>
       </c>
-      <c r="G55" s="69" t="s">
+      <c r="G55" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="L55" s="80" t="s">
+      <c r="L55" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="M55" s="80">
+      <c r="M55" s="42">
         <v>143.88</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="F56" s="67">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="F56" s="37">
         <v>10</v>
       </c>
-      <c r="G56" s="56" t="s">
+      <c r="G56" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="L56" s="79" t="s">
+      <c r="L56" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="M56" s="79">
+      <c r="M56" s="40">
         <v>179.22</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="60" t="s">
+      <c r="B57" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G57" s="53"/>
-      <c r="L57" s="80" t="s">
+      <c r="G57" s="5"/>
+      <c r="L57" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="M57" s="80">
+      <c r="M57" s="42">
         <v>179.22</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="62" t="s">
+      <c r="A58" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="62" t="s">
+      <c r="B58" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="53"/>
-      <c r="L58" s="79" t="s">
+      <c r="G58" s="5"/>
+      <c r="L58" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="M58" s="79">
+      <c r="M58" s="40">
         <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="60" t="s">
+      <c r="A59" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L59" s="80" t="s">
+      <c r="L59" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="M59" s="80">
+      <c r="M59" s="42">
         <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="62"/>
-      <c r="L60" s="79" t="s">
+      <c r="C60" s="10"/>
+      <c r="L60" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="M60" s="79">
+      <c r="M60" s="44">
         <v>0</v>
       </c>
     </row>
@@ -2658,163 +2726,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387CFE5F-C44C-4C88-9E0E-9757B7251501}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="22.5546875" customWidth="1"/>
     <col min="9" max="9" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="50" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="47.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="50" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="43.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="50" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="21"/>
       <c r="C10" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="52"/>
+      <c r="G10" s="19"/>
       <c r="H10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="59"/>
+      <c r="I11" s="58" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="52" t="s">
         <v>118</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -2823,132 +2891,132 @@
       <c r="H12" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="54" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="37"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="52"/>
+      <c r="G13" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="54" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="37"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="52"/>
+      <c r="G14" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="54" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="9" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="52"/>
+      <c r="G15" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="54" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="55" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="53"/>
+      <c r="B17" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="19" t="s">
+      <c r="F17" s="53"/>
+      <c r="G17" s="11" t="s">
         <v>187</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="55" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="42"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="52" t="s">
         <v>120</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -2957,34 +3025,34 @@
       <c r="H18" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="54" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1">
-      <c r="A19" s="40"/>
+    <row r="19" spans="1:9">
+      <c r="A19" s="53"/>
       <c r="B19" s="11" t="s">
         <v>158</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="52"/>
+      <c r="G19" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="54" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="52" t="s">
         <v>120</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2993,96 +3061,96 @@
       <c r="C20" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="21" t="s">
+      <c r="F20" s="52"/>
+      <c r="G20" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="54" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="52"/>
+      <c r="B21" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="7" t="s">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="52"/>
+      <c r="B22" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="9" t="s">
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="52"/>
+      <c r="B23" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1">
-      <c r="A25" s="40"/>
+    <row r="25" spans="1:9">
+      <c r="A25" s="53"/>
       <c r="B25" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="52" t="s">
         <v>125</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -3091,40 +3159,40 @@
       <c r="C26" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="9" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="52"/>
+      <c r="B27" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="12" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="F12:F15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tecnicaCajaNegra.xlsx
+++ b/tecnicaCajaNegra.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolam\Desktop\UNI\2º-CUATRI\INGENIERIA DEL SOFTWARE 2\IS2_2122\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Moodle\Tercer Curso\SegundoCuatrimestre\IngenieriaSoftwareII\IS2_2122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C45A225-D348-4B14-93F2-EBA600DC146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112A980B-6C0F-4F35-A31B-2D486B48C9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8B7E8EB2-CB6A-44E4-9B29-750F352AD572}"/>
   </bookViews>
   <sheets>
     <sheet name="CajaNegra" sheetId="2" r:id="rId1"/>
-    <sheet name="ListaOrdenadaAcotada" sheetId="3" r:id="rId2"/>
+    <sheet name="Interfaz Gráfica" sheetId="4" r:id="rId2"/>
+    <sheet name="ListaOrdenadaAcotada" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="209">
   <si>
     <t>Turismo</t>
   </si>
@@ -644,13 +645,40 @@
   </si>
   <si>
     <t>(10,[2,4,7,8])</t>
+  </si>
+  <si>
+    <t>TEST INTERFAZ</t>
+  </si>
+  <si>
+    <t>Consulta Contribuyente</t>
+  </si>
+  <si>
+    <t>Casos Validos</t>
+  </si>
+  <si>
+    <t>DNI válido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null, !DNI válido </t>
+  </si>
+  <si>
+    <t>Posibles Valores</t>
+  </si>
+  <si>
+    <t>1) 11111111A</t>
+  </si>
+  <si>
+    <t>3) 1ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) null </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -888,11 +916,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -920,27 +959,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,29 +1045,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1146,347 +1199,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1508,6 +1220,215 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1525,6 +1446,37 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1538,6 +1490,107 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1553,40 +1606,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}" name="Tabla2" displayName="Tabla2" ref="L4:M15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="24" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}" name="Tabla2" displayName="Tabla2" ref="L4:M15" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23">
   <autoFilter ref="L4:M15" xr:uid="{010405D1-FAAC-4404-94C9-F10767BF9EBA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EBA2B40D-7824-4711-AC26-09AAE2E789F1}" name="Casos de Prueba" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{8C7346ED-F76B-4CF5-BA59-AAA305746A9E}" name="ValorEsperado" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{EBA2B40D-7824-4711-AC26-09AAE2E789F1}" name="Casos de Prueba" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{8C7346ED-F76B-4CF5-BA59-AAA305746A9E}" name="ValorEsperado" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}" name="Tabla22" displayName="Tabla22" ref="L27:M39" totalsRowShown="0" headerRowDxfId="14" dataDxfId="23" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}" name="Tabla22" displayName="Tabla22" ref="L27:M39" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="L27:M39" xr:uid="{EF9C19B6-BC36-4490-8F0F-F26905FF15B4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6E82589E-C63F-4924-955F-D0E664A60B7B}" name="Casos de Prueba" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{02EF6B4E-8FA0-4E1C-981C-E745CCB96025}" name="ValorEsperado" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{6E82589E-C63F-4924-955F-D0E664A60B7B}" name="Casos de Prueba" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{02EF6B4E-8FA0-4E1C-981C-E745CCB96025}" name="ValorEsperado" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E54209B0-68A6-464C-BE3E-670C4EE59A28}" name="Tabla24" displayName="Tabla24" ref="L49:M60" totalsRowShown="0" headerRowDxfId="8" dataDxfId="22" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E54209B0-68A6-464C-BE3E-670C4EE59A28}" name="Tabla24" displayName="Tabla24" ref="L49:M60" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="L49:M60" xr:uid="{E54209B0-68A6-464C-BE3E-670C4EE59A28}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D918EA40-880F-4EF6-BC88-2623B914B94D}" name="Casos de Prueba" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{9CFA7683-A0A0-4800-B0FC-D74FD4FF190E}" name="ValorEsperado" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{D918EA40-880F-4EF6-BC88-2623B914B94D}" name="Casos de Prueba" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{9CFA7683-A0A0-4800-B0FC-D74FD4FF190E}" name="ValorEsperado" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D2A277E9-2F6E-4AE7-B28F-83A3D52D324A}" name="Tabla4" displayName="Tabla4" ref="A2:D7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D2A277E9-2F6E-4AE7-B28F-83A3D52D324A}" name="Tabla4" displayName="Tabla4" ref="A2:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A2:D7" xr:uid="{D2A277E9-2F6E-4AE7-B28F-83A3D52D324A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4729E252-A4AF-47EF-B45C-B9482DA0AF89}" name="Método" dataDxfId="3"/>
@@ -1897,45 +1950,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275440AC-4520-4206-A9FA-8D187B524CA7}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="40.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="53.88671875" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="53.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="F3" s="22" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="15" t="s">
         <v>54</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -1945,20 +1998,20 @@
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -1968,20 +2021,20 @@
       <c r="C5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="30">
         <v>4</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="38">
         <v>25.24</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -1991,20 +2044,20 @@
       <c r="C6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="28">
         <v>5</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="39">
         <v>25.24</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -2014,81 +2067,81 @@
       <c r="C7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="30">
         <v>6</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="38">
         <v>68.16</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="F8" s="35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="28">
         <v>7</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="46" t="s">
+      <c r="L8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="39">
         <v>68.16</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="F9" s="37">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="30">
         <v>8</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="38">
         <v>143.88</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="F10" s="35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="28">
         <v>9</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="46" t="s">
+      <c r="L10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="39">
         <v>143.88</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="F11" s="37">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="F11" s="30">
         <v>10</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="45" t="s">
+      <c r="L11" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="38">
         <v>179.22</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -2100,14 +2153,14 @@
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="1"/>
-      <c r="L12" s="46" t="s">
+      <c r="L12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="39">
         <v>179.22</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
@@ -2119,14 +2172,14 @@
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="1"/>
-      <c r="L13" s="45" t="s">
+      <c r="L13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="38">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>63</v>
       </c>
@@ -2137,14 +2190,14 @@
         <v>49</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="L14" s="46" t="s">
+      <c r="L14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>47</v>
       </c>
@@ -2152,19 +2205,19 @@
         <v>53</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="38">
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.6">
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G26" s="3" t="s">
         <v>24</v>
       </c>
@@ -2172,7 +2225,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>24</v>
       </c>
@@ -2182,20 +2235,20 @@
       <c r="C27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="M27" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>4</v>
       </c>
@@ -2205,20 +2258,20 @@
       <c r="C28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="L28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="30">
+      <c r="M28" s="23">
         <v>25.24</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
@@ -2228,22 +2281,22 @@
       <c r="C29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="18">
         <v>5</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="19" t="s">
         <v>73</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="L29" s="31" t="s">
+      <c r="L29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="32">
+      <c r="M29" s="25">
         <f>25.24*0.8</f>
         <v>20.192</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>6</v>
       </c>
@@ -2253,21 +2306,21 @@
       <c r="C30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="16">
         <v>6</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="30">
+      <c r="M30" s="23">
         <f>68.16*0.8</f>
         <v>54.527999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>25</v>
       </c>
@@ -2277,70 +2330,70 @@
       <c r="C31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="18">
         <v>7</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L31" s="31" t="s">
+      <c r="L31" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="32">
+      <c r="M31" s="25">
         <v>68.16</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="F32" s="23">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F32" s="16">
         <v>8</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="29" t="s">
+      <c r="L32" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="30">
+      <c r="M32" s="23">
         <v>143.88</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="F33" s="25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F33" s="18">
         <v>9</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="L33" s="31" t="s">
+      <c r="L33" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M33" s="32">
+      <c r="M33" s="25">
         <f>143.88*0.8</f>
         <v>115.104</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="F34" s="23">
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="F34" s="16">
         <v>10</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L34" s="29" t="s">
+      <c r="L34" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M34" s="30">
+      <c r="M34" s="23">
         <f>179.22*0.8</f>
         <v>143.376</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>46</v>
       </c>
@@ -2353,20 +2406,20 @@
       <c r="D35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="18">
         <v>11</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="L35" s="31" t="s">
+      <c r="L35" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M35" s="32">
+      <c r="M35" s="25">
         <v>179.22</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>22</v>
       </c>
@@ -2377,21 +2430,21 @@
         <v>71</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="F36" s="23">
+      <c r="F36" s="16">
         <v>12</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L36" s="29" t="s">
+      <c r="L36" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="M36" s="30">
+      <c r="M36" s="23">
         <f>224*0.8</f>
         <v>179.20000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>23</v>
       </c>
@@ -2402,21 +2455,21 @@
         <v>49</v>
       </c>
       <c r="D37" s="12"/>
-      <c r="F37" s="25">
+      <c r="F37" s="18">
         <v>13</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="19" t="s">
         <v>80</v>
       </c>
       <c r="J37" s="6"/>
-      <c r="L37" s="31" t="s">
+      <c r="L37" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M37" s="32">
+      <c r="M37" s="25">
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>26</v>
       </c>
@@ -2429,63 +2482,63 @@
       <c r="D38" s="11"/>
       <c r="F38" s="13"/>
       <c r="G38" s="1"/>
-      <c r="L38" s="29" t="s">
+      <c r="L38" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="30">
+      <c r="M38" s="23">
         <f>224*0.8</f>
         <v>179.20000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F39" s="13"/>
       <c r="G39" s="1"/>
-      <c r="L39" s="33" t="s">
+      <c r="L39" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="M39" s="34">
+      <c r="M39" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F40" s="13"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6">
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G47" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
-      <c r="F48" s="22" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F48" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="15" t="s">
         <v>54</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>92</v>
       </c>
@@ -2495,20 +2548,20 @@
       <c r="C49" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="L49" s="27" t="s">
+      <c r="L49" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M49" s="28" t="s">
+      <c r="M49" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>4</v>
       </c>
@@ -2518,20 +2571,20 @@
       <c r="C50" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="30">
         <v>4</v>
       </c>
-      <c r="G50" s="38" t="s">
+      <c r="G50" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="L50" s="39" t="s">
+      <c r="L50" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="M50" s="40">
+      <c r="M50" s="33">
         <v>8.84</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>5</v>
       </c>
@@ -2541,20 +2594,20 @@
       <c r="C51" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="28">
         <v>5</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="G51" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="L51" s="41" t="s">
+      <c r="L51" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="M51" s="42">
+      <c r="M51" s="35">
         <v>25.24</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>6</v>
       </c>
@@ -2564,81 +2617,81 @@
       <c r="C52" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="30">
         <v>6</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="L52" s="39" t="s">
+      <c r="L52" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="M52" s="40">
+      <c r="M52" s="33">
         <v>68.16</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
-      <c r="F53" s="35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F53" s="28">
         <v>7</v>
       </c>
-      <c r="G53" s="36" t="s">
+      <c r="G53" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="L53" s="41" t="s">
+      <c r="L53" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="M53" s="42">
+      <c r="M53" s="35">
         <v>68.16</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
-      <c r="F54" s="37">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F54" s="30">
         <v>8</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="L54" s="39" t="s">
+      <c r="L54" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="M54" s="40">
+      <c r="M54" s="33">
         <v>143.88</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
-      <c r="F55" s="35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F55" s="28">
         <v>9</v>
       </c>
-      <c r="G55" s="36" t="s">
+      <c r="G55" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="L55" s="41" t="s">
+      <c r="L55" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="M55" s="42">
+      <c r="M55" s="35">
         <v>143.88</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="15" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="F56" s="37">
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="F56" s="30">
         <v>10</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="L56" s="39" t="s">
+      <c r="L56" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="M56" s="40">
+      <c r="M56" s="33">
         <v>179.22</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>46</v>
       </c>
@@ -2649,14 +2702,14 @@
         <v>48</v>
       </c>
       <c r="G57" s="5"/>
-      <c r="L57" s="41" t="s">
+      <c r="L57" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="M57" s="42">
+      <c r="M57" s="35">
         <v>179.22</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>22</v>
       </c>
@@ -2667,14 +2720,14 @@
         <v>60</v>
       </c>
       <c r="G58" s="5"/>
-      <c r="L58" s="39" t="s">
+      <c r="L58" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="M58" s="40">
+      <c r="M58" s="33">
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>93</v>
       </c>
@@ -2684,14 +2737,14 @@
       <c r="C59" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L59" s="41" t="s">
+      <c r="L59" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="M59" s="42">
+      <c r="M59" s="35">
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>47</v>
       </c>
@@ -2699,10 +2752,10 @@
         <v>53</v>
       </c>
       <c r="C60" s="10"/>
-      <c r="L60" s="43" t="s">
+      <c r="L60" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="M60" s="44">
+      <c r="M60" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2723,31 +2776,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2BC3C2-9DA1-4D91-B250-D3FCCE76FBD9}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="62"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387CFE5F-C44C-4C88-9E0E-9757B7251501}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1">
+      <c r="B1" s="57"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
@@ -2761,119 +2887,119 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45.75" customHeight="1">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="43" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="47.25" customHeight="1">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="43" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="43.2">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="43" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="49" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="49"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="49" t="s">
+      <c r="D6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="49"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="F9" s="18" t="s">
+      <c r="D7" s="42"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="21" t="s">
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="58"/>
       <c r="C10" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="60"/>
       <c r="H10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="58" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="58" t="s">
+      <c r="C11" s="56"/>
+      <c r="D11" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="58" t="s">
+      <c r="H11" s="56"/>
+      <c r="I11" s="49" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="52" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="54" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -2882,7 +3008,7 @@
       <c r="D12" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="54" t="s">
         <v>118</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -2891,33 +3017,33 @@
       <c r="H12" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="45" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="12" t="s">
         <v>183</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="45" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54" t="s">
         <v>134</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -2926,39 +3052,39 @@
       <c r="D14" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="12" t="s">
         <v>178</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="I14" s="45" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="12" t="s">
         <v>150</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="12" t="s">
         <v>181</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="45" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="53" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
         <v>119</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -2970,7 +3096,7 @@
       <c r="D16" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="55" t="s">
         <v>119</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -2979,12 +3105,12 @@
       <c r="H16" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="46" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="53"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
       <c r="B17" s="11" t="s">
         <v>148</v>
       </c>
@@ -2994,19 +3120,19 @@
       <c r="D17" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="11" t="s">
         <v>187</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="46" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="53"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
       <c r="B18" s="11" t="s">
         <v>155</v>
       </c>
@@ -3016,7 +3142,7 @@
       <c r="D18" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="54" t="s">
         <v>120</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -3025,12 +3151,12 @@
       <c r="H18" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I18" s="54" t="s">
+      <c r="I18" s="45" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="53"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
       <c r="B19" s="11" t="s">
         <v>158</v>
       </c>
@@ -3040,19 +3166,19 @@
       <c r="D19" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="12" t="s">
         <v>191</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="I19" s="54" t="s">
+      <c r="I19" s="45" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="52" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
         <v>120</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -3064,19 +3190,19 @@
       <c r="D20" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="12" t="s">
         <v>192</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="I20" s="54" t="s">
+      <c r="I20" s="45" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="52"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
       <c r="B21" s="12" t="s">
         <v>164</v>
       </c>
@@ -3086,15 +3212,15 @@
       <c r="D21" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="47" t="s">
         <v>121</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="52"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
       <c r="B22" s="12" t="s">
         <v>164</v>
       </c>
@@ -3104,15 +3230,15 @@
       <c r="D22" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="48" t="s">
         <v>125</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="52"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
       <c r="B23" s="12" t="s">
         <v>161</v>
       </c>
@@ -3123,8 +3249,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="53" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -3137,8 +3263,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="53"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
       <c r="B25" s="11" t="s">
         <v>167</v>
       </c>
@@ -3149,8 +3275,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="52" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
         <v>125</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -3163,8 +3289,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="52"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
       <c r="B27" s="12" t="s">
         <v>122</v>
       </c>
@@ -3177,6 +3303,15 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A20:A23"/>
@@ -3184,15 +3319,6 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="F12:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
